--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AA4D1F-7AFE-42A9-B3CF-1CA608217A0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8550FD46-C618-447A-BA9D-EDD2B5EC35CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Sl.No</t>
   </si>
@@ -56,6 +56,96 @@
   </si>
   <si>
     <t>I tried some examples using jshell</t>
+  </si>
+  <si>
+    <t>Introduction to java Program, Introducton to eclipse &amp; Github Book</t>
+  </si>
+  <si>
+    <t>How to get a details from User, If and Loops concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I tried some program to intelliJ using if statement and Loops </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Programs </t>
+  </si>
+  <si>
+    <t>How to apply some basic logics to a program</t>
+  </si>
+  <si>
+    <t>Basic Programs using Loops and if conditions</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Section 10&amp;11. Methods creating.</t>
+  </si>
+  <si>
+    <t>How to create a Method and How to return value from another method.</t>
+  </si>
+  <si>
+    <t>Basic Programs using Loops and Method creating.</t>
+  </si>
+  <si>
+    <t>Section 12</t>
+  </si>
+  <si>
+    <t>Reference type in java</t>
+  </si>
+  <si>
+    <t>Basic Programs using string</t>
+  </si>
+  <si>
+    <t>Section 13</t>
+  </si>
+  <si>
+    <t>Array and ArayList</t>
+  </si>
+  <si>
+    <t>Basic Programs using Array</t>
+  </si>
+  <si>
+    <t>Section 13(Pending) &amp; Section 14</t>
+  </si>
+  <si>
+    <t>OOPS Concepts in java with example</t>
+  </si>
+  <si>
+    <t>OOPS using Jshell</t>
+  </si>
+  <si>
+    <t>Section 14(Pending) &amp; Section 15</t>
+  </si>
+  <si>
+    <t>OOPS Concepts in java with example and Collections in java</t>
+  </si>
+  <si>
+    <t>Collections in java</t>
+  </si>
+  <si>
+    <t>Section 15</t>
+  </si>
+  <si>
+    <t>Collections in Java</t>
+  </si>
+  <si>
+    <t>List,Set,Queue</t>
+  </si>
+  <si>
+    <t>Section 15 &amp; 16</t>
+  </si>
+  <si>
+    <t>Collections and Generics</t>
+  </si>
+  <si>
+    <t>Map Interface</t>
+  </si>
+  <si>
+    <t>Overall Recall</t>
+  </si>
+  <si>
+    <t>Tried some programs.</t>
   </si>
 </sst>
 </file>
@@ -139,7 +229,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,21 +512,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="96.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.7109375" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" customWidth="1"/>
+    <col min="6" max="6" width="64.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -442,218 +535,347 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6">
+        <v>44595</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6">
+        <v>44596</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6">
+        <v>44596</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44599</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44600</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>44601</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44602</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44603</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44604</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44606</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>44607</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44608</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>44609</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
